--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - MIR.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - MIR.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="143">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -515,6 +515,33 @@
   </si>
   <si>
     <t xml:space="preserve">Cancela Registro </t>
+  </si>
+  <si>
+    <t>Configuración</t>
+  </si>
+  <si>
+    <t>Cambio de Contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrar serión </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio / Configiraciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra ventana principal de configuraciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifica Cambio de Contraseña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cierra Sesión </t>
+  </si>
+  <si>
+    <t>Cambia modificando la contraseña del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrar Sesión </t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1064,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1816,7 +1842,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1948,7 +1973,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2246,7 +2270,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2367,7 +2390,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3127,7 +3149,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9729,128 +9750,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -10027,8 +9927,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -10096,9 +9996,130 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N260" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
-  <autoFilter ref="A6:N260"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N263" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
+  <autoFilter ref="A6:N263"/>
   <tableColumns count="14">
     <tableColumn id="1" name="N° Caso"/>
     <tableColumn id="2" name="Menús" dataDxfId="4"/>
@@ -10365,11 +10386,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:N283"/>
+  <dimension ref="A1:N286"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10544,7 +10565,7 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>51</v>
@@ -10700,10 +10721,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
@@ -10712,13 +10733,13 @@
         <v>87</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -10727,10 +10748,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
         <v>86</v>
@@ -10739,25 +10760,25 @@
         <v>87</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
         <v>86</v>
@@ -10766,17 +10787,17 @@
         <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -10793,28 +10814,25 @@
         <v>87</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>86</v>
@@ -10823,29 +10841,25 @@
         <v>87</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>22</v>
+      </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>86</v>
@@ -10854,33 +10868,25 @@
         <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" s="1">
-        <v>45083</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D19" t="s">
         <v>86</v>
@@ -10889,20 +10895,20 @@
         <v>87</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -10910,7 +10916,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>86</v>
@@ -10919,17 +10925,21 @@
         <v>87</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J20" s="3"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -10937,7 +10947,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>86</v>
@@ -10946,17 +10956,25 @@
         <v>87</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="1">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -10964,7 +10982,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
         <v>86</v>
@@ -10973,13 +10991,16 @@
         <v>87</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
+      <c r="H22" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="I22" s="3" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -10991,7 +11012,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
@@ -11010,7 +11031,7 @@
       </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -11018,7 +11039,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
         <v>86</v>
@@ -11033,11 +11054,11 @@
         <v>16</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -11045,7 +11066,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
         <v>86</v>
@@ -11054,17 +11075,17 @@
         <v>87</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -11072,7 +11093,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
         <v>86</v>
@@ -11080,14 +11101,14 @@
       <c r="E26" t="s">
         <v>87</v>
       </c>
-      <c r="F26" t="s">
-        <v>84</v>
+      <c r="F26" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
-      <c r="I26" t="s">
-        <v>85</v>
+      <c r="I26" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="N26" s="1"/>
     </row>
@@ -11107,14 +11128,14 @@
       <c r="E27" t="s">
         <v>87</v>
       </c>
-      <c r="F27" t="s">
-        <v>72</v>
+      <c r="F27" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="N27" s="1"/>
     </row>
@@ -11134,17 +11155,15 @@
       <c r="E28" t="s">
         <v>87</v>
       </c>
-      <c r="F28" t="s">
-        <v>89</v>
+      <c r="F28" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28"/>
+        <v>31</v>
+      </c>
       <c r="I28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28"/>
+        <v>83</v>
+      </c>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -11164,21 +11183,17 @@
         <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29"/>
+        <v>85</v>
+      </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -11194,21 +11209,18 @@
       <c r="E30" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>91</v>
+      <c r="F30" t="s">
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -11224,90 +11236,117 @@
       <c r="E31" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>92</v>
+      <c r="F31" t="s">
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>119</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H31"/>
       <c r="I31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M31" t="s">
-        <v>42</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J31"/>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C32" t="s">
-        <v>93</v>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
-        <v>93</v>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>62</v>
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+    <row r="34" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C34" t="s">
-        <v>93</v>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="M34" t="s">
+        <v>42</v>
       </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>29</v>
+      </c>
       <c r="B35" t="s">
         <v>59</v>
       </c>
@@ -11321,14 +11360,17 @@
         <v>95</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30</v>
+      </c>
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -11342,14 +11384,17 @@
         <v>95</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>31</v>
+      </c>
       <c r="B37" t="s">
         <v>59</v>
       </c>
@@ -11363,19 +11408,22 @@
         <v>95</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>32</v>
+      </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -11384,19 +11432,22 @@
         <v>95</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>33</v>
+      </c>
       <c r="B39" t="s">
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
         <v>94</v>
@@ -11405,19 +11456,22 @@
         <v>95</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>34</v>
+      </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
         <v>94</v>
@@ -11426,19 +11480,22 @@
         <v>95</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>35</v>
+      </c>
       <c r="B41" t="s">
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
         <v>94</v>
@@ -11447,19 +11504,22 @@
         <v>95</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>36</v>
+      </c>
       <c r="B42" t="s">
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
         <v>94</v>
@@ -11475,12 +11535,15 @@
       </c>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>37</v>
+      </c>
       <c r="B43" t="s">
         <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
         <v>94</v>
@@ -11492,16 +11555,19 @@
         <v>112</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>38</v>
+      </c>
       <c r="B44" t="s">
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
         <v>94</v>
@@ -11510,19 +11576,22 @@
         <v>95</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>39</v>
+      </c>
       <c r="B45" t="s">
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
         <v>94</v>
@@ -11531,14 +11600,17 @@
         <v>95</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>40</v>
+      </c>
       <c r="B46" t="s">
         <v>59</v>
       </c>
@@ -11552,14 +11624,17 @@
         <v>95</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>41</v>
+      </c>
       <c r="B47" t="s">
         <v>59</v>
       </c>
@@ -11573,14 +11648,17 @@
         <v>95</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>42</v>
+      </c>
       <c r="B48" t="s">
         <v>59</v>
       </c>
@@ -11593,14 +11671,18 @@
       <c r="E48" t="s">
         <v>95</v>
       </c>
-      <c r="F48" t="s">
-        <v>89</v>
+      <c r="F48" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>43</v>
+      </c>
       <c r="B49" t="s">
         <v>59</v>
       </c>
@@ -11613,14 +11695,18 @@
       <c r="E49" t="s">
         <v>95</v>
       </c>
-      <c r="F49" t="s">
-        <v>90</v>
+      <c r="F49" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>44</v>
+      </c>
       <c r="B50" t="s">
         <v>59</v>
       </c>
@@ -11634,14 +11720,17 @@
         <v>95</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>45</v>
+      </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
@@ -11654,78 +11743,88 @@
       <c r="E51" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>92</v>
+      <c r="F51" t="s">
+        <v>89</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>46</v>
+      </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="F52" t="s">
+        <v>90</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>47</v>
+      </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>48</v>
+      </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>49</v>
+      </c>
       <c r="B55" t="s">
         <v>59</v>
       </c>
@@ -11739,14 +11838,17 @@
         <v>104</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>50</v>
+      </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -11760,14 +11862,17 @@
         <v>104</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>51</v>
+      </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
@@ -11781,14 +11886,17 @@
         <v>104</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>52</v>
+      </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
@@ -11802,19 +11910,22 @@
         <v>104</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>53</v>
+      </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
         <v>103</v>
@@ -11823,19 +11934,22 @@
         <v>104</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>54</v>
+      </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
         <v>103</v>
@@ -11844,19 +11958,22 @@
         <v>104</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>55</v>
+      </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
         <v>103</v>
@@ -11865,19 +11982,22 @@
         <v>104</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>56</v>
+      </c>
       <c r="B62" t="s">
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
         <v>103</v>
@@ -11893,12 +12013,15 @@
       </c>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>57</v>
+      </c>
       <c r="B63" t="s">
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
         <v>103</v>
@@ -11914,12 +12037,15 @@
       </c>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>58</v>
+      </c>
       <c r="B64" t="s">
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
         <v>103</v>
@@ -11931,16 +12057,19 @@
         <v>112</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>59</v>
+      </c>
       <c r="B65" t="s">
         <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
         <v>103</v>
@@ -11949,19 +12078,22 @@
         <v>104</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>60</v>
+      </c>
       <c r="B66" t="s">
         <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
         <v>103</v>
@@ -11970,14 +12102,17 @@
         <v>104</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>61</v>
+      </c>
       <c r="B67" t="s">
         <v>59</v>
       </c>
@@ -11991,14 +12126,17 @@
         <v>104</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>62</v>
+      </c>
       <c r="B68" t="s">
         <v>59</v>
       </c>
@@ -12011,15 +12149,18 @@
       <c r="E68" t="s">
         <v>104</v>
       </c>
-      <c r="F68" t="s">
-        <v>89</v>
+      <c r="F68" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>63</v>
+      </c>
       <c r="B69" t="s">
         <v>59</v>
       </c>
@@ -12032,15 +12173,18 @@
       <c r="E69" t="s">
         <v>104</v>
       </c>
-      <c r="F69" t="s">
-        <v>90</v>
+      <c r="F69" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>64</v>
+      </c>
       <c r="B70" t="s">
         <v>59</v>
       </c>
@@ -12054,14 +12198,17 @@
         <v>104</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>65</v>
+      </c>
       <c r="B71" t="s">
         <v>59</v>
       </c>
@@ -12074,20 +12221,23 @@
       <c r="E71" t="s">
         <v>104</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>92</v>
+      <c r="F71" t="s">
+        <v>89</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72" t="s">
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
         <v>103</v>
@@ -12095,36 +12245,99 @@
       <c r="E72" t="s">
         <v>104</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" t="s">
+        <v>104</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="14:14" x14ac:dyDescent="0.3">
@@ -12319,101 +12532,101 @@
     <row r="144" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J160" s="6"/>
+    <row r="160" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J163" s="6"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N176" s="1"/>
     </row>
     <row r="177" spans="10:14" x14ac:dyDescent="0.3">
@@ -12426,15 +12639,12 @@
       <c r="N179" s="1"/>
     </row>
     <row r="180" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J180" s="6"/>
       <c r="N180" s="1"/>
     </row>
     <row r="181" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J181" s="6"/>
       <c r="N181" s="1"/>
     </row>
     <row r="182" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J182" s="6"/>
       <c r="N182" s="1"/>
     </row>
     <row r="183" spans="10:14" x14ac:dyDescent="0.3">
@@ -12446,15 +12656,15 @@
       <c r="N184" s="1"/>
     </row>
     <row r="185" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J185" s="7"/>
+      <c r="J185" s="6"/>
       <c r="N185" s="1"/>
     </row>
     <row r="186" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J186" s="7"/>
+      <c r="J186" s="6"/>
       <c r="N186" s="1"/>
     </row>
     <row r="187" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J187" s="7"/>
+      <c r="J187" s="6"/>
       <c r="N187" s="1"/>
     </row>
     <row r="188" spans="10:14" x14ac:dyDescent="0.3">
@@ -12486,12 +12696,15 @@
       <c r="N194" s="1"/>
     </row>
     <row r="195" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J195" s="7"/>
       <c r="N195" s="1"/>
     </row>
     <row r="196" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J196" s="7"/>
       <c r="N196" s="1"/>
     </row>
     <row r="197" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J197" s="7"/>
       <c r="N197" s="1"/>
     </row>
     <row r="198" spans="10:14" x14ac:dyDescent="0.3">
@@ -12558,15 +12771,12 @@
       <c r="N218" s="1"/>
     </row>
     <row r="219" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J219" s="7"/>
       <c r="N219" s="1"/>
     </row>
     <row r="220" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J220" s="7"/>
       <c r="N220" s="1"/>
     </row>
     <row r="221" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J221" s="7"/>
       <c r="N221" s="1"/>
     </row>
     <row r="222" spans="10:14" x14ac:dyDescent="0.3">
@@ -12610,7 +12820,7 @@
       <c r="N231" s="1"/>
     </row>
     <row r="232" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J232" s="6"/>
+      <c r="J232" s="7"/>
       <c r="N232" s="1"/>
     </row>
     <row r="233" spans="10:14" x14ac:dyDescent="0.3">
@@ -12622,7 +12832,7 @@
       <c r="N234" s="1"/>
     </row>
     <row r="235" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J235" s="7"/>
+      <c r="J235" s="6"/>
       <c r="N235" s="1"/>
     </row>
     <row r="236" spans="10:14" x14ac:dyDescent="0.3">
@@ -12658,12 +12868,15 @@
       <c r="N243" s="1"/>
     </row>
     <row r="244" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J244" s="7"/>
       <c r="N244" s="1"/>
     </row>
     <row r="245" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J245" s="7"/>
       <c r="N245" s="1"/>
     </row>
     <row r="246" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J246" s="7"/>
       <c r="N246" s="1"/>
     </row>
     <row r="247" spans="10:14" x14ac:dyDescent="0.3">
@@ -12699,14 +12912,14 @@
     <row r="257" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N257" s="1"/>
     </row>
-    <row r="261" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N261" s="1"/>
-    </row>
-    <row r="262" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N262" s="1"/>
-    </row>
-    <row r="263" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N263" s="1"/>
+    <row r="258" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N258" s="1"/>
+    </row>
+    <row r="259" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N259" s="1"/>
+    </row>
+    <row r="260" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N260" s="1"/>
     </row>
     <row r="264" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N264" s="1"/>
@@ -12717,15 +12930,15 @@
     <row r="266" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N266" s="1"/>
     </row>
+    <row r="267" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N267" s="1"/>
+    </row>
+    <row r="268" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N268" s="1"/>
+    </row>
     <row r="269" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N269" s="1"/>
     </row>
-    <row r="270" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N270" s="1"/>
-    </row>
-    <row r="271" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N271" s="1"/>
-    </row>
     <row r="272" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N272" s="1"/>
     </row>
@@ -12757,12 +12970,21 @@
       <c r="N281" s="1"/>
     </row>
     <row r="282" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E282" t="s">
+      <c r="N282" s="1"/>
+    </row>
+    <row r="283" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="N283" s="1"/>
+    </row>
+    <row r="284" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="N284" s="1"/>
+    </row>
+    <row r="285" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E285" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E283" t="s">
+    <row r="286" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E286" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12778,7 +13000,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="M18" r:id="rId2"/>
+    <hyperlink ref="M21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -12792,19 +13014,19 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K30:K284 K7:K27</xm:sqref>
+          <xm:sqref>K33:K287 K7:K30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G30:G284 G7:G27</xm:sqref>
+          <xm:sqref>G33:G287 G7:G30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L304</xm:sqref>
+          <xm:sqref>L7:L307</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - MIR.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - MIR.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="154">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -542,6 +542,39 @@
   </si>
   <si>
     <t xml:space="preserve">Cerrar Sesión </t>
+  </si>
+  <si>
+    <t>Jose Angel Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Elizondo </t>
+  </si>
+  <si>
+    <t>Gerardo Flores</t>
+  </si>
+  <si>
+    <t>Jonathan Bustos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Caballero </t>
+  </si>
+  <si>
+    <t>Jose Serna</t>
+  </si>
+  <si>
+    <t>Marlon Méndez</t>
+  </si>
+  <si>
+    <t>Mayra Cortes</t>
+  </si>
+  <si>
+    <t>Noe Treviño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Pardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodolfo Zuñiga </t>
   </si>
 </sst>
 </file>
@@ -1064,6 +1097,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1803,10 +1837,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
@@ -1842,6 +1876,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1973,6 +2008,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2270,6 +2306,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2390,6 +2427,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3149,6 +3187,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5220,13 +5259,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45084.560683796299" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="278">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45084.692556828704" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="281">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N1048576" sheet="MIR"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="26"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="69"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5245,9 +5284,9 @@
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
+        <s v="Error"/>
         <s v="Realizado"/>
         <s v="Pendiente"/>
-        <s v="Error"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -5261,16 +5300,18 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <m/>
+        <s v="Marlon Méndez"/>
         <s v="Abelino Olguín" u="1"/>
         <s v="Juanita Reyes" u="1"/>
         <s v="Adolfo García" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
         <m/>
+        <s v="Tarea por hacer "/>
         <s v="Confirmada" u="1"/>
         <s v="Resuelta" u="1"/>
         <s v="Aceptada" u="1"/>
@@ -5297,7 +5338,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="278">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="281">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio wed"/>
@@ -5321,7 +5362,7 @@
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Ingresar "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Busqueda Correcta "/>
     <s v="Busqueda Correcta "/>
     <m/>
@@ -5337,7 +5378,7 @@
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Columnas "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Filtrado de columnas seleccionadas"/>
     <s v="Filtrado de columnas seleccionadas "/>
     <m/>
@@ -5353,7 +5394,7 @@
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Exportar "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Exporta e Imprime archivo correctamente "/>
     <s v="Generación correcta "/>
     <m/>
@@ -5369,7 +5410,7 @@
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Filtrado por página"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Filtra paginas correctamente "/>
     <s v="Se realiza muestran correctamente los número de registros consultados"/>
     <m/>
@@ -5385,23 +5426,71 @@
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Inicio "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Principal "/>
+    <s v="Configuración"/>
+    <s v="Capturador"/>
+    <s v="iclechugacapturador"/>
+    <s v="Inicio / Configiraciones "/>
+    <x v="2"/>
+    <m/>
+    <s v="Muestra ventana principal de configuraciones "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Principal "/>
+    <s v="Cambio de Contraseña"/>
+    <s v="Capturador"/>
+    <s v="iclechugacapturador"/>
+    <s v="Modifica Cambio de Contraseña "/>
+    <x v="2"/>
+    <m/>
+    <s v="Cambia modificando la contraseña del usuario"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Principal "/>
+    <s v="Cerrar serión "/>
+    <s v="Capturador"/>
+    <s v="iclechugacapturador"/>
+    <s v="Cierra Sesión "/>
     <x v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
+    <s v="Cerrar Sesión "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
     <s v="Programas Presupuestales "/>
     <s v="MIR"/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Busqueda Filtro "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda de MIR "/>
     <m/>
@@ -5411,13 +5500,13 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
+    <n v="11"/>
     <s v="Programas Presupuestales "/>
     <s v="MIR"/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Busqueda Filtro Institución "/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
     <m/>
@@ -5427,13 +5516,13 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <n v="12"/>
     <s v="Programas Presupuestales "/>
     <s v="MIR"/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Filtro Por Estado de la Mir "/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
     <m/>
@@ -5443,13 +5532,13 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <n v="13"/>
     <s v="Programas Presupuestales "/>
     <s v="MIR"/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Añadir Registro "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Acceso correcto "/>
     <s v="Permitir dar acceso al llenado de la información  correspondiente para la MIR "/>
     <m/>
@@ -5459,13 +5548,13 @@
     <m/>
   </r>
   <r>
-    <n v="11"/>
+    <n v="14"/>
     <s v="MIR"/>
     <s v="Encabezado "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Cargar Archivo "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Carga Archivo Correctamente "/>
     <s v="Cargar archivo "/>
     <m/>
@@ -5475,29 +5564,29 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <n v="15"/>
     <s v="MIR"/>
     <s v="Encabezado "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Descarga plantilla"/>
-    <x v="2"/>
+    <x v="0"/>
     <s v="Descarga la plantilla correctamente, El botón plantilla no se distingue, se ve como si fuera un título del apartado, agregar un tooltip descriptivo donde indique que es para descargar."/>
     <s v="Descargar plantilla "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="https://siednl.atlassian.net/browse/PBR-17"/>
     <d v="2023-06-06T00:00:00"/>
   </r>
   <r>
-    <n v="13"/>
+    <n v="16"/>
     <s v="MIR"/>
     <s v="Encabezado "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Check box Anticorrupción "/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Selecciona correctamente / El check box anticorrupción ¿Dónde se refleja en el apartado en Resumen?"/>
     <s v="Permite seleccionar la opción anticorrupción "/>
     <m/>
@@ -5507,13 +5596,13 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <n v="17"/>
     <s v="MIR"/>
     <s v="Fin  "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Captura de información "/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
     <m/>
@@ -5523,13 +5612,13 @@
     <m/>
   </r>
   <r>
-    <n v="15"/>
+    <n v="18"/>
     <s v="MIR"/>
     <s v="Propósito "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Captura de información "/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
     <m/>
@@ -5539,13 +5628,13 @@
     <m/>
   </r>
   <r>
-    <n v="16"/>
+    <n v="19"/>
     <s v="MIR"/>
     <s v="Componentes "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Captura de información "/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
     <m/>
@@ -5555,13 +5644,13 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <n v="20"/>
     <s v="MIR"/>
     <s v="Actividades"/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Captura de información "/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
     <m/>
@@ -5571,13 +5660,13 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <n v="21"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Captura de información "/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Recauda toda la información de la MIR "/>
     <m/>
@@ -5587,13 +5676,13 @@
     <m/>
   </r>
   <r>
-    <n v="19"/>
+    <n v="22"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Cancelar"/>
-    <x v="0"/>
+    <x v="1"/>
     <m/>
     <s v="Cancela la MIR"/>
     <m/>
@@ -5603,13 +5692,13 @@
     <m/>
   </r>
   <r>
-    <n v="20"/>
+    <n v="23"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Guardar como Borrador"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Guarda borrador en los listados de MIR"/>
     <m/>
@@ -5619,13 +5708,13 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <n v="24"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Enviar "/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Enviar a un capturador o verificar para su revisión "/>
     <m/>
@@ -5635,13 +5724,13 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <n v="25"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Cancelar Confirmación "/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Cancela Confirmación "/>
     <m/>
@@ -5651,13 +5740,13 @@
     <m/>
   </r>
   <r>
-    <n v="23"/>
+    <n v="26"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Nuevo Comentario "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Se agrega comentario correctamente "/>
     <s v="Agregar comentario "/>
     <m/>
@@ -5667,13 +5756,13 @@
     <m/>
   </r>
   <r>
-    <n v="24"/>
+    <n v="27"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Cancelar Comentario "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Permite cancelar Comentatario "/>
     <s v="Cancelar Comentario "/>
     <m/>
@@ -5683,13 +5772,13 @@
     <m/>
   </r>
   <r>
-    <n v="25"/>
+    <n v="28"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Confirmar "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Se envia la confirmación al usuario verificador"/>
     <s v="Confirmación de la MIR para revisión"/>
     <m/>
@@ -5699,7 +5788,7 @@
     <m/>
   </r>
   <r>
-    <n v="26"/>
+    <n v="29"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Verificador"/>
@@ -5715,7 +5804,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="30"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Verificador"/>
@@ -5731,7 +5820,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="31"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Verificador"/>
@@ -5747,7 +5836,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="32"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Verificador"/>
@@ -5763,7 +5852,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="33"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Verificador"/>
@@ -5779,7 +5868,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="34"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Verificador"/>
@@ -5795,7 +5884,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="35"/>
     <s v="MIR"/>
     <s v="Encabezado "/>
     <s v="Verificador"/>
@@ -5811,7 +5900,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="36"/>
     <s v="MIR"/>
     <s v="Fin  "/>
     <s v="Verificador"/>
@@ -5827,7 +5916,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="37"/>
     <s v="MIR"/>
     <s v="Propósito "/>
     <s v="Verificador"/>
@@ -5843,7 +5932,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="38"/>
     <s v="MIR"/>
     <s v="Componentes "/>
     <s v="Verificador"/>
@@ -5859,7 +5948,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="39"/>
     <s v="MIR"/>
     <s v="Actividades"/>
     <s v="Verificador"/>
@@ -5875,7 +5964,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="40"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
@@ -5891,7 +5980,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="41"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
@@ -5907,7 +5996,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="42"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
@@ -5923,7 +6012,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="43"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
@@ -5939,7 +6028,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="44"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
@@ -5955,7 +6044,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="45"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
@@ -5971,7 +6060,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="46"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
@@ -5987,7 +6076,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="47"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
@@ -6003,7 +6092,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="48"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
@@ -6019,7 +6108,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="49"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
@@ -6035,7 +6124,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="50"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
@@ -6051,7 +6140,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="51"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
@@ -6067,7 +6156,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="52"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
@@ -6083,7 +6172,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="53"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
@@ -6099,7 +6188,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="54"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
@@ -6115,7 +6204,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="55"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
@@ -6131,7 +6220,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="56"/>
     <s v="MIR"/>
     <s v="Encabezado "/>
     <s v="Autorizador "/>
@@ -6147,7 +6236,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="57"/>
     <s v="MIR"/>
     <s v="Fin  "/>
     <s v="Autorizador "/>
@@ -6163,7 +6252,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="58"/>
     <s v="MIR"/>
     <s v="Propósito "/>
     <s v="Autorizador "/>
@@ -6179,7 +6268,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="59"/>
     <s v="MIR"/>
     <s v="Componentes "/>
     <s v="Autorizador "/>
@@ -6195,7 +6284,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="60"/>
     <s v="MIR"/>
     <s v="Actividades"/>
     <s v="Autorizador "/>
@@ -6211,7 +6300,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="61"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
@@ -6227,7 +6316,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="62"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
@@ -6243,7 +6332,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="63"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
@@ -6259,7 +6348,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="64"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
@@ -6275,7 +6364,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="65"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
@@ -6291,7 +6380,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="66"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
@@ -6307,7 +6396,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="67"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
@@ -6323,7 +6412,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="68"/>
     <s v="MIR"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
@@ -6339,7 +6428,7 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <n v="69"/>
     <s v="MIR"/>
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
@@ -9750,7 +9839,198 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item h="1" x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -9764,25 +10044,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
+      <items count="6">
         <item h="1" x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
         <item m="1" x="2"/>
-        <item m="1" x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="10">
+      <items count="11">
+        <item m="1" x="6"/>
+        <item m="1" x="9"/>
         <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
         <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
         <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
         <item m="1" x="2"/>
-        <item m="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9916,196 +10198,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -10388,9 +10480,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N286"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10967,6 +11059,12 @@
       <c r="I21" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="K21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
       <c r="M21" s="6" t="s">
         <v>78</v>
       </c>
@@ -13009,12 +13107,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K33:K287 K7:K30</xm:sqref>
+          <xm:sqref>K76:K287</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -13026,7 +13124,19 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L307</xm:sqref>
+          <xm:sqref>L264:L307</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$D$2:$D$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>K7:K75</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L7:L263</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13039,13 +13149,13 @@
   <dimension ref="A3:B49"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
@@ -13069,7 +13179,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -13077,7 +13187,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -13093,7 +13203,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="15">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -13141,10 +13251,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13201,6 +13311,59 @@
       <c r="C5" t="s">
         <v>46</v>
       </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - MIR.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - MIR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="158">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -575,6 +575,18 @@
   </si>
   <si>
     <t xml:space="preserve">Rodolfo Zuñiga </t>
+  </si>
+  <si>
+    <t>irisc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear un nuevo usuariio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear un Nuevo Usuario </t>
+  </si>
+  <si>
+    <t>https://siednl.atlassian.net/browse/PBR-520</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1109,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1876,7 +1887,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2008,7 +2018,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2306,7 +2315,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2427,7 +2435,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3187,7 +3194,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9839,77 +9845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item h="1" x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -10029,8 +9965,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -10198,6 +10134,76 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item h="1" x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -10482,7 +10488,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12424,7 +12430,33 @@
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N76" s="1"/>
+      <c r="A76">
+        <v>70</v>
+      </c>
+      <c r="D76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L76" t="s">
+        <v>43</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N76" s="1">
+        <v>45134</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N77" s="1"/>
@@ -13099,11 +13131,12 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="M21" r:id="rId2"/>
+    <hyperlink ref="M76" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
